--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="3528" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-120" yWindow="4440" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -337,6 +337,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -350,9 +353,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -642,7 +642,7 @@
   <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,8 +849,8 @@
         <v>11</v>
       </c>
       <c r="B28" s="23"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A29" s="4"/>
@@ -863,8 +863,8 @@
         <v>4</v>
       </c>
       <c r="B30" s="23"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A31" s="3"/>
@@ -877,8 +877,8 @@
         <v>5</v>
       </c>
       <c r="B32" s="23"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A33" s="3"/>
@@ -887,46 +887,46 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A40" s="31" t="s">
@@ -938,9 +938,9 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
@@ -951,25 +951,25 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A38:D39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A19:D21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="4440" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-120" yWindow="5352" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -277,62 +284,65 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,9 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,8 +648,8 @@
   </sheetPr>
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,76 +660,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A11" s="2"/>
@@ -731,12 +738,12 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A13" s="5"/>
@@ -748,21 +755,21 @@
       <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
@@ -770,9 +777,9 @@
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A18" s="6" t="s">
@@ -783,38 +790,38 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A24" s="5"/>
@@ -823,34 +830,34 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A29" s="4"/>
@@ -859,12 +866,12 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A31" s="3"/>
@@ -873,12 +880,12 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A33" s="3"/>
@@ -887,57 +894,57 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
     </row>
     <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A26:B26"/>
@@ -951,25 +958,26 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A19:D21"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A19:D21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="5352" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-120" yWindow="6264" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Detalle:</t>
   </si>
   <si>
-    <t>N° Registro</t>
-  </si>
-  <si>
     <t>Monto Empeño:</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Usuario:</t>
+  </si>
+  <si>
+    <t>N° Pago</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="40"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -275,9 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -296,7 +293,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -649,7 +649,7 @@
   <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="3" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -677,7 +677,7 @@
     </row>
     <row r="4" spans="1:4" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -685,7 +685,7 @@
     </row>
     <row r="5" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A5" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -708,8 +708,8 @@
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="7" t="s">
-        <v>19</v>
+      <c r="A8" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -725,7 +725,7 @@
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -752,7 +752,7 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="22"/>
@@ -766,18 +766,18 @@
       <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="1.1000000000000001">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
     </row>
@@ -785,9 +785,9 @@
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
@@ -808,12 +808,14 @@
       <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A23" s="24" t="s">

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="6264" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-120" yWindow="6720" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -300,67 +300,67 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,8 +648,8 @@
   </sheetPr>
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,76 +660,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A11" s="2"/>
@@ -738,12 +738,12 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A13" s="5"/>
@@ -755,15 +755,15 @@
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A16" s="8" t="s">
@@ -778,8 +778,8 @@
         <v>17</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A18" s="6" t="s">
@@ -790,22 +790,22 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
@@ -814,16 +814,16 @@
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="16">
-        <v>0</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A24" s="5"/>
@@ -832,34 +832,34 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="28"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A29" s="4"/>
@@ -868,12 +868,12 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A31" s="3"/>
@@ -882,12 +882,12 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A33" s="3"/>
@@ -896,57 +896,74 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A19:D21"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A26:B26"/>
@@ -963,23 +980,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A19:D21"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="6720" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-120" yWindow="7176" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -300,14 +300,44 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,41 +356,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -649,7 +649,7 @@
   <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,76 +660,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A11" s="2"/>
@@ -738,12 +738,12 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A13" s="5"/>
@@ -755,15 +755,15 @@
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A16" s="8" t="s">
@@ -778,8 +778,8 @@
         <v>17</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A18" s="6" t="s">
@@ -790,22 +790,22 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
@@ -818,12 +818,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A24" s="5"/>
@@ -832,34 +832,34 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A29" s="4"/>
@@ -868,12 +868,12 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A31" s="3"/>
@@ -882,12 +882,12 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A33" s="3"/>
@@ -896,74 +896,57 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A19:D21"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A26:B26"/>
@@ -980,6 +963,23 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empeños\Comprobantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="2160" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-120" yWindow="3528" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +147,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -240,10 +248,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -283,6 +292,33 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,14 +328,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -313,38 +349,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -626,10 +639,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D39"/>
+  <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,52 +653,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A8" s="7" t="s">
@@ -699,17 +712,17 @@
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A11" s="2"/>
@@ -718,12 +731,12 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A13" s="5"/>
@@ -735,15 +748,15 @@
       <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A16" s="9" t="s">
@@ -758,8 +771,8 @@
         <v>17</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.95">
       <c r="A18" s="6" t="s">
@@ -770,22 +783,22 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -796,132 +809,154 @@
       <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="A25" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="36"/>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="A28" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="A30" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="A35" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="A37" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-    </row>
-    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-    </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A39" s="20" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="A40" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="A19:D21"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -935,22 +970,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtjarquinm\Documents\GitHub-Donovan\Empe-o\Empeño.WindowsForms\Empeños\ComprobantesIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A1BFC-B62D-4E0A-BE3D-C379085E8C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="7176" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">CASA DE EMPEÑOS </t>
   </si>
@@ -99,15 +100,18 @@
   </si>
   <si>
     <t>N° Pago</t>
+  </si>
+  <si>
+    <t>(IVAI)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -257,9 +261,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -287,7 +291,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -296,71 +300,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,130 +649,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" customWidth="1"/>
+    <col min="2" max="2" width="43.36328125" customWidth="1"/>
+    <col min="4" max="4" width="56.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="57.65" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" ht="64.25" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:4" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="17" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" ht="61.25" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="17" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" ht="61.25" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -773,15 +780,15 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="1.1000000000000001">
+    <row r="17" spans="1:4" ht="70" x14ac:dyDescent="1.35">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -789,25 +796,25 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" ht="63.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
@@ -817,136 +824,155 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A25" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="26"/>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="20" t="s">
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A29" s="4"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A29" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B32" s="17"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A35" s="33" t="s">
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A37" s="33" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A37" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-    </row>
-    <row r="39" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A40" s="30" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="A40" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A19:D21"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A26:B26"/>
@@ -963,23 +989,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A19:D21"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteInteres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtjarquinm\Documents\GitHub-Donovan\Empe-o\Empeño.WindowsForms\Empeños\ComprobantesIVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donov\Documents\GitHub Async\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A1BFC-B62D-4E0A-BE3D-C379085E8C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D396D-E5B8-4DE4-8443-224E0F3FB25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -303,15 +303,54 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,45 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,124 +655,124 @@
   </sheetPr>
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.54296875" customWidth="1"/>
-    <col min="2" max="2" width="43.36328125" customWidth="1"/>
-    <col min="4" max="4" width="56.36328125" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="57.65" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" ht="64.25" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A3" s="33" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" ht="110" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-    </row>
-    <row r="5" spans="1:4" ht="61.25" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="61.35" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="61.25" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A6" s="33" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="61.35" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A7" s="33" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" ht="56.1" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+    <row r="14" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -780,15 +780,15 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="70" x14ac:dyDescent="1.35">
+    <row r="17" spans="1:4" ht="69" x14ac:dyDescent="0.85">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -796,25 +796,25 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" ht="63.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
@@ -824,155 +824,138 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A28" s="17" t="s">
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A29" s="38" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B30" s="21"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
+      <c r="B32" s="21"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A35" s="23" t="s">
+    <row r="34" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A35" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A37" s="23" t="s">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+    </row>
+    <row r="36" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A37" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+    </row>
+    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-    </row>
-    <row r="39" spans="1:4" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="1.1499999999999999">
-      <c r="A40" s="20" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+    </row>
+    <row r="40" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A40" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A19:D21"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A26:B26"/>
@@ -989,6 +972,23 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
